--- a/Agile-master-template(Group2-version9).xlsx
+++ b/Agile-master-template(Group2-version9).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12230" windowHeight="8510" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12230" windowHeight="8510" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Product Roadmap" sheetId="1" r:id="rId1"/>
@@ -1480,6 +1480,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1491,12 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1922,11 +1922,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="138760576"/>
-        <c:axId val="138762112"/>
+        <c:axId val="135348608"/>
+        <c:axId val="135350144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138760576"/>
+        <c:axId val="135348608"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1959,7 +1959,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138762112"/>
+        <c:crossAx val="135350144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1967,7 +1967,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138762112"/>
+        <c:axId val="135350144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42616"/>
@@ -2011,7 +2011,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138760576"/>
+        <c:crossAx val="135348608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2205,11 +2205,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139118464"/>
-        <c:axId val="139120000"/>
+        <c:axId val="135710592"/>
+        <c:axId val="135712128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139118464"/>
+        <c:axId val="135710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2242,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139120000"/>
+        <c:crossAx val="135712128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2250,7 +2250,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139120000"/>
+        <c:axId val="135712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2293,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139118464"/>
+        <c:crossAx val="135710592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2346,7 +2346,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2434,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2540,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2626,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2724,7 @@
         <xdr:cNvPr id="6" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2767,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2880,7 @@
         <xdr:cNvPr id="6" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2928,7 @@
         <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2964,7 @@
         <xdr:cNvPr id="8" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="9" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3055,7 @@
         <xdr:cNvPr id="10" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3098,7 @@
         <xdr:cNvPr id="11" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3146,7 @@
         <xdr:cNvPr id="12" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3189,7 @@
         <xdr:cNvPr id="13" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3237,7 @@
         <xdr:cNvPr id="14" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3273,7 @@
         <xdr:cNvPr id="15" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3321,7 @@
         <xdr:cNvPr id="16" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3369,7 @@
         <xdr:cNvPr id="17" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3412,7 @@
         <xdr:cNvPr id="18" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3757,7 +3757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3930,26 +3930,26 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="19.5">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84" t="s">
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3970,9 +3970,9 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="19.5">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4020,20 +4020,20 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -4054,18 +4054,18 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4086,18 +4086,18 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4118,18 +4118,18 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -4150,18 +4150,18 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -4182,18 +4182,18 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -4214,18 +4214,18 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -4246,18 +4246,18 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4278,18 +4278,18 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" ht="42" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -4310,20 +4310,20 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -4344,18 +4344,18 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4376,18 +4376,18 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -4408,18 +4408,18 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -4440,18 +4440,18 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -4472,18 +4472,18 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -4504,18 +4504,18 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -4536,18 +4536,18 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -4568,18 +4568,18 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="42" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -4600,22 +4600,22 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4636,18 +4636,18 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -4668,18 +4668,18 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -4700,18 +4700,18 @@
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -4732,18 +4732,18 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -4764,18 +4764,18 @@
       <c r="AD30" s="1"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -4796,18 +4796,18 @@
       <c r="AD31" s="1"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -4828,18 +4828,18 @@
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -4860,18 +4860,18 @@
       <c r="AD33" s="1"/>
     </row>
     <row r="34" spans="1:30" ht="42" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -4892,20 +4892,20 @@
       <c r="AD34" s="1"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -4926,18 +4926,18 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -4958,18 +4958,18 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -4990,18 +4990,18 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -5022,18 +5022,18 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -5054,18 +5054,18 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -5086,18 +5086,18 @@
       <c r="AD40" s="1"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -5118,18 +5118,18 @@
       <c r="AD41" s="1"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -5150,18 +5150,18 @@
       <c r="AD42" s="1"/>
     </row>
     <row r="43" spans="1:30" ht="42" customHeight="1">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -5182,20 +5182,20 @@
       <c r="AD43" s="1"/>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5216,18 +5216,18 @@
       <c r="AD44" s="1"/>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -5248,18 +5248,18 @@
       <c r="AD45" s="1"/>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5280,18 +5280,18 @@
       <c r="AD46" s="1"/>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5312,18 +5312,18 @@
       <c r="AD47" s="1"/>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5344,18 +5344,18 @@
       <c r="AD48" s="1"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5376,18 +5376,18 @@
       <c r="AD49" s="1"/>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5408,18 +5408,18 @@
       <c r="AD50" s="1"/>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5440,18 +5440,18 @@
       <c r="AD51" s="1"/>
     </row>
     <row r="52" spans="1:30" ht="42" customHeight="1">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -5568,20 +5568,20 @@
       <c r="AD55" s="1"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -5602,18 +5602,18 @@
       <c r="AD56" s="1"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -5634,18 +5634,18 @@
       <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -5666,18 +5666,18 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="81"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -5698,18 +5698,18 @@
       <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -5730,18 +5730,18 @@
       <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -5763,12 +5763,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A8:C16"/>
-    <mergeCell ref="D8:L16"/>
     <mergeCell ref="A44:C52"/>
     <mergeCell ref="D44:L52"/>
     <mergeCell ref="A56:L61"/>
@@ -5778,6 +5772,12 @@
     <mergeCell ref="D26:L34"/>
     <mergeCell ref="A35:C43"/>
     <mergeCell ref="D35:L43"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A8:C16"/>
+    <mergeCell ref="D8:L16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -19686,7 +19686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -22790,8 +22790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Agile-master-template(Group2-version9).xlsx
+++ b/Agile-master-template(Group2-version9).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kami\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC274EB-8476-46DB-BA31-9261596BBDA0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Roadmap" sheetId="1" r:id="rId1"/>
@@ -31,12 +32,12 @@
     <definedName name="Status">[2]Sheet2!$A$5:$A$7</definedName>
     <definedName name="YesNo">[1]Sheet2!$A$6:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="232">
   <si>
     <t>Agile Product Roadmap</t>
   </si>
@@ -231,9 +232,6 @@
   </si>
   <si>
     <t>Project planning</t>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>Work distribution</t>
@@ -516,33 +514,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>my account would not be hacked</t>
-  </si>
-  <si>
-    <t>use the website safely</t>
-  </si>
-  <si>
-    <t>ex3</t>
-  </si>
-  <si>
-    <t>achieve the project objective</t>
-  </si>
-  <si>
-    <t>stack working proccess of the online retailer system</t>
-  </si>
-  <si>
-    <t>ex2</t>
-  </si>
-  <si>
-    <t>ensure the project stays on track.</t>
-  </si>
-  <si>
-    <t>view working proccess from each team member</t>
-  </si>
-  <si>
-    <t>ex1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -632,18 +603,6 @@
   </si>
   <si>
     <t>As I customer</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>As I customer</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>As an online retailer</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>As a logistic</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -909,11 +868,27 @@
     <t>Doing the document report and PowerPoint for presentation</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some members</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d/m;@"/>
   </numFmts>
@@ -1340,7 +1315,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1421,9 +1396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,6 +1499,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,12 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,7 +1562,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3813,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3979,26 +3951,26 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83" t="s">
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -4019,9 +3991,9 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4069,20 +4041,20 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -4103,18 +4075,18 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4135,18 +4107,18 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4167,18 +4139,18 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -4199,18 +4171,18 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -4231,18 +4203,18 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -4263,18 +4235,18 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -4295,18 +4267,18 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4327,18 +4299,18 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -4359,20 +4331,20 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -4393,18 +4365,18 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4425,18 +4397,18 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -4457,18 +4429,18 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -4489,18 +4461,18 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -4521,18 +4493,18 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -4553,18 +4525,18 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -4585,18 +4557,18 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -4617,18 +4589,18 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -4649,22 +4621,22 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79" t="s">
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4685,18 +4657,18 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -4717,18 +4689,18 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -4749,18 +4721,18 @@
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -4781,18 +4753,18 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -4813,18 +4785,18 @@
       <c r="AD30" s="1"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -4845,18 +4817,18 @@
       <c r="AD31" s="1"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -4877,18 +4849,18 @@
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -4909,18 +4881,18 @@
       <c r="AD33" s="1"/>
     </row>
     <row r="34" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -4941,20 +4913,20 @@
       <c r="AD34" s="1"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -4975,18 +4947,18 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -5007,18 +4979,18 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -5039,18 +5011,18 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -5071,18 +5043,18 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -5103,18 +5075,18 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -5135,18 +5107,18 @@
       <c r="AD40" s="1"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -5167,18 +5139,18 @@
       <c r="AD41" s="1"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -5199,18 +5171,18 @@
       <c r="AD42" s="1"/>
     </row>
     <row r="43" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -5231,20 +5203,20 @@
       <c r="AD43" s="1"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5265,18 +5237,18 @@
       <c r="AD44" s="1"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -5297,18 +5269,18 @@
       <c r="AD45" s="1"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5329,18 +5301,18 @@
       <c r="AD46" s="1"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5361,18 +5333,18 @@
       <c r="AD47" s="1"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5393,18 +5365,18 @@
       <c r="AD48" s="1"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5425,18 +5397,18 @@
       <c r="AD49" s="1"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5457,18 +5429,18 @@
       <c r="AD50" s="1"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5489,18 +5461,18 @@
       <c r="AD51" s="1"/>
     </row>
     <row r="52" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -5617,20 +5589,20 @@
       <c r="AD55" s="1"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -5651,18 +5623,18 @@
       <c r="AD56" s="1"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -5683,18 +5655,18 @@
       <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -5715,18 +5687,18 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" s="80"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -5747,18 +5719,18 @@
       <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -5779,18 +5751,18 @@
       <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -5812,12 +5784,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A8:C16"/>
-    <mergeCell ref="D8:L16"/>
     <mergeCell ref="A44:C52"/>
     <mergeCell ref="D44:L52"/>
     <mergeCell ref="A56:L61"/>
@@ -5827,10 +5793,16 @@
     <mergeCell ref="D26:L34"/>
     <mergeCell ref="A35:C43"/>
     <mergeCell ref="D35:L43"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A8:C16"/>
+    <mergeCell ref="D8:L16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A56" r:id="rId1"/>
+    <hyperlink ref="A56" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5839,7 +5811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5951,7 +5923,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6014,7 +5986,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6035,7 +6007,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6130,10 +6102,10 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="84" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="1"/>
@@ -6151,8 +6123,8 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -6168,8 +6140,8 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6185,8 +6157,8 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6202,8 +6174,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6219,8 +6191,8 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6236,8 +6208,8 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6253,11 +6225,11 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="87" t="s">
         <v>155</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>156</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6274,8 +6246,8 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6291,8 +6263,8 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6308,9 +6280,9 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6325,8 +6297,8 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6342,8 +6314,8 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6359,8 +6331,8 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6376,11 +6348,11 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="85" t="s">
-        <v>154</v>
+      <c r="B29" s="84" t="s">
+        <v>153</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6397,8 +6369,8 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6414,9 +6386,9 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="68"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -6431,8 +6403,8 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6448,8 +6420,8 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6465,8 +6437,8 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="85"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6482,8 +6454,8 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6499,10 +6471,10 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="1"/>
@@ -6520,8 +6492,8 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6537,8 +6509,8 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6554,8 +6526,8 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6571,8 +6543,8 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="85"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6588,8 +6560,8 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6605,8 +6577,8 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6677,11 +6649,11 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -6696,9 +6668,9 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -6713,9 +6685,9 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -6730,9 +6702,9 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7389,7 +7361,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1"/>
+    <hyperlink ref="A46" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -7398,11 +7370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IY32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11129,8 +11101,8 @@
         <f t="shared" ref="E15:E26" si="0">D15-C15</f>
         <v>22</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>61</v>
+      <c r="F15" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -11678,7 +11650,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -11936,10 +11908,10 @@
     </row>
     <row r="18" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="C18" s="25">
         <v>43137</v>
@@ -11952,7 +11924,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -12210,7 +12182,7 @@
     </row>
     <row r="19" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>60</v>
@@ -12225,8 +12197,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>65</v>
+      <c r="F19" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -12484,7 +12456,7 @@
     </row>
     <row r="20" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>60</v>
@@ -12500,7 +12472,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -12758,10 +12730,10 @@
     </row>
     <row r="21" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>71</v>
       </c>
       <c r="C21" s="31">
         <v>43143</v>
@@ -12774,7 +12746,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -13032,10 +13004,10 @@
     </row>
     <row r="22" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="31">
         <v>43147</v>
@@ -13048,7 +13020,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -13306,7 +13278,7 @@
     </row>
     <row r="23" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>60</v>
@@ -13321,8 +13293,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>65</v>
+      <c r="F23" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -13580,10 +13552,10 @@
     </row>
     <row r="24" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="31">
         <v>43151</v>
@@ -13596,7 +13568,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -13854,10 +13826,10 @@
     </row>
     <row r="25" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="31">
         <v>43156</v>
@@ -13870,7 +13842,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -14128,10 +14100,10 @@
     </row>
     <row r="26" spans="1:259" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="31">
         <v>43170</v>
@@ -14144,7 +14116,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -14923,30 +14895,30 @@
       <c r="IY28" s="1"/>
     </row>
     <row r="29" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A29" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
+      <c r="A29" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -15186,28 +15158,28 @@
       <c r="IY29" s="1"/>
     </row>
     <row r="30" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -15447,28 +15419,28 @@
       <c r="IY30" s="1"/>
     </row>
     <row r="31" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -15708,28 +15680,28 @@
       <c r="IY31" s="1"/>
     </row>
     <row r="32" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -15974,7 +15946,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1"/>
+    <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15986,11 +15958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16019,7 +15991,7 @@
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16062,17 +16034,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>166</v>
+      <c r="A5" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -16084,19 +16056,19 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>165</v>
+      <c r="A6" s="36">
+        <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="68"/>
+        <v>184</v>
+      </c>
+      <c r="E6" s="67"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16106,17 +16078,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>162</v>
+      <c r="A7" s="36">
+        <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -16128,17 +16100,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>159</v>
+      <c r="A8" s="36">
+        <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -16150,10 +16122,18 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="A9" s="36">
+        <v>4</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>178</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -16165,16 +16145,16 @@
     </row>
     <row r="10" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -16187,16 +16167,16 @@
     </row>
     <row r="11" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -16209,16 +16189,16 @@
     </row>
     <row r="12" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -16231,16 +16211,16 @@
     </row>
     <row r="13" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -16253,16 +16233,16 @@
     </row>
     <row r="14" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -16275,16 +16255,16 @@
     </row>
     <row r="15" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -16297,16 +16277,16 @@
     </row>
     <row r="16" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -16318,18 +16298,10 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>8</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>183</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -16340,18 +16312,10 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
-        <v>9</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>181</v>
-      </c>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -16362,18 +16326,10 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>10</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>180</v>
-      </c>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -16384,18 +16340,10 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
-        <v>11</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>178</v>
-      </c>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -16518,13 +16466,13 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="A29" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -16534,11 +16482,11 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -16548,11 +16496,11 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -16562,11 +16510,11 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -16576,11 +16524,11 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -17141,7 +17089,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1"/>
+    <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17150,11 +17098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -17232,7 +17180,7 @@
     </row>
     <row r="3" spans="1:29" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17326,26 +17274,26 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="G6" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>89</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -17371,27 +17319,27 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <f>SUM(F8:F10)</f>
         <v>48</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>92</v>
+      <c r="G7" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -17418,16 +17366,16 @@
     </row>
     <row r="8" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>91</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>63</v>
@@ -17436,9 +17384,9 @@
         <v>32</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="H8" s="67"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -17463,25 +17411,25 @@
     </row>
     <row r="9" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="E9" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="36">
         <v>8</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -17508,25 +17456,25 @@
     </row>
     <row r="10" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="36">
         <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -17552,27 +17500,27 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>68</v>
+      <c r="A11" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="40">
+      <c r="E11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="39">
         <f>SUM(F12:F14)</f>
         <v>95</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>92</v>
+      <c r="G11" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -17599,25 +17547,25 @@
     </row>
     <row r="12" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="E12" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="36">
         <v>20</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -17644,25 +17592,25 @@
     </row>
     <row r="13" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="E13" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="36">
         <v>45</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -17689,25 +17637,25 @@
     </row>
     <row r="14" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="36">
         <v>30</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -17733,27 +17681,27 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>73</v>
+      <c r="A15" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="40">
+        <v>229</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="39">
         <f>SUM(F16:F18)</f>
         <v>45</v>
       </c>
-      <c r="G15" s="40" t="s">
-        <v>90</v>
+      <c r="G15" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -17780,25 +17728,25 @@
     </row>
     <row r="16" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="36">
         <v>15</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -17825,25 +17773,25 @@
     </row>
     <row r="17" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="36">
         <v>25</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -17870,25 +17818,25 @@
     </row>
     <row r="18" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="36">
         <v>5</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -17914,27 +17862,27 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>96</v>
+      <c r="A19" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="40">
+        <v>229</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="39">
         <f>SUM(F20:F22)</f>
         <v>64</v>
       </c>
-      <c r="G19" s="40" t="s">
-        <v>92</v>
+      <c r="G19" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -17961,25 +17909,25 @@
     </row>
     <row r="20" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="36">
         <v>32</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -18006,25 +17954,25 @@
     </row>
     <row r="21" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="36">
         <v>32</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -18051,25 +17999,25 @@
     </row>
     <row r="22" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="36">
         <v>0</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -18095,27 +18043,27 @@
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="39" t="s">
+      <c r="A23" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="40">
+      <c r="E23" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="39">
         <f>SUM(F24:F26)</f>
         <v>64</v>
       </c>
-      <c r="G23" s="40" t="s">
-        <v>90</v>
+      <c r="G23" s="39" t="s">
+        <v>230</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -18142,25 +18090,25 @@
     </row>
     <row r="24" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="36">
         <v>48</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -18187,25 +18135,25 @@
     </row>
     <row r="25" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="36">
         <v>8</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -18232,25 +18180,25 @@
     </row>
     <row r="26" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="36">
         <v>8</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -18338,21 +18286,21 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="41"/>
+      <c r="A29" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -18371,19 +18319,19 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="41"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -18402,19 +18350,19 @@
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="41"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -18433,19 +18381,19 @@
       <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="41"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="40"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -18464,19 +18412,19 @@
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="41"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -18495,19 +18443,19 @@
       <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="41"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="40"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -19709,21 +19657,21 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E26" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>'Product Backlog'!Status</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D26" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>Priority</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C26 G7:G26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C26 G7:G26" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>YesNo</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1"/>
+    <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -19732,17 +19680,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.625" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="41" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -19753,7 +19701,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="43"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -19782,7 +19730,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="43"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -19811,9 +19759,9 @@
     </row>
     <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -19842,7 +19790,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="43"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -19871,7 +19819,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="43"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -19899,38 +19847,38 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="K6" s="43" t="s">
         <v>111</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>112</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -19950,25 +19898,25 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="46">
+      <c r="A7" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="45">
         <v>8</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+      <c r="C7" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -19988,7 +19936,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="36">
         <v>32</v>
@@ -20020,11 +19968,11 @@
       <c r="K8" s="36">
         <v>2</v>
       </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -20039,7 +19987,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="36">
         <v>16</v>
@@ -20048,7 +19996,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E9" s="36">
         <v>3</v>
@@ -20090,16 +20038,16 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="36">
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E10" s="36">
         <v>4</v>
@@ -20141,7 +20089,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="36">
         <v>8</v>
@@ -20150,7 +20098,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E11" s="36">
         <v>9</v>
@@ -20191,25 +20139,25 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="46">
+      <c r="A12" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -20229,14 +20177,16 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="36"/>
+        <v>142</v>
+      </c>
+      <c r="B13" s="36">
+        <v>2</v>
+      </c>
       <c r="C13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -20264,14 +20214,16 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="36"/>
+        <v>143</v>
+      </c>
+      <c r="B14" s="36">
+        <v>4</v>
+      </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -20299,14 +20251,16 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="36"/>
+        <v>144</v>
+      </c>
+      <c r="B15" s="36">
+        <v>5</v>
+      </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -20334,14 +20288,16 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="36"/>
+        <v>145</v>
+      </c>
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
       <c r="C16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -20368,25 +20324,25 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="46">
+      <c r="A17" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="45">
         <v>5</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="C17" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -20406,13 +20362,17 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="36"/>
+        <v>146</v>
+      </c>
+      <c r="B18" s="36">
+        <v>6</v>
+      </c>
       <c r="C18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -20439,11 +20399,17 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="B19" s="36">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -20470,7 +20436,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="8"/>
@@ -20501,7 +20467,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="8"/>
@@ -20531,21 +20497,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="46">
+      <c r="A22" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="45">
         <v>8</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -20565,7 +20531,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="8"/>
@@ -20596,7 +20562,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="8"/>
@@ -20627,7 +20593,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="8"/>
@@ -20658,7 +20624,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="8"/>
@@ -20688,21 +20654,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="46">
+      <c r="A27" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="45">
         <v>3</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -20722,7 +20688,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="8"/>
@@ -20753,7 +20719,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="8"/>
@@ -20784,7 +20750,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="8"/>
@@ -20815,7 +20781,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="8"/>
@@ -20845,37 +20811,37 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49">
+      <c r="A32" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48">
         <f>SUM(E7:E31)</f>
         <v>23</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="48">
         <f>SUM(F8:F31)</f>
         <v>17</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="48">
         <f>SUM(G7:G31)</f>
         <v>12</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="48">
         <f>SUM(H7:H31)</f>
         <v>8</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="48">
         <f>SUM(I7:I31)</f>
         <v>8</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="48">
         <f>SUM(J7:J31)</f>
         <v>6</v>
       </c>
-      <c r="K32" s="49">
+      <c r="K32" s="48">
         <f>SUM(K7:K31)</f>
         <v>4</v>
       </c>
@@ -20898,7 +20864,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -20927,7 +20893,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="43"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -20955,28 +20921,28 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
+      <c r="A35" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -20986,26 +20952,26 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -21015,26 +20981,26 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -21044,26 +21010,26 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -21073,26 +21039,26 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -21102,26 +21068,26 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -21136,7 +21102,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1"/>
+    <hyperlink ref="A35" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -21145,10 +21111,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -21177,7 +21143,7 @@
     </row>
     <row r="2" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -21248,19 +21214,19 @@
     </row>
     <row r="5" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="93"/>
+        <v>186</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="92"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -21279,19 +21245,19 @@
     </row>
     <row r="6" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="93">
+        <v>188</v>
+      </c>
+      <c r="B6" s="92">
         <v>1003</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="93"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="92"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -21310,19 +21276,19 @@
     </row>
     <row r="7" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="93"/>
+        <v>189</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="92"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -21341,19 +21307,19 @@
     </row>
     <row r="8" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="94">
+        <v>123</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="93">
         <v>43145</v>
       </c>
-      <c r="F8" s="93"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -21372,11 +21338,11 @@
     </row>
     <row r="9" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="10"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -21394,23 +21360,23 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="D10" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="71" t="s">
         <v>127</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>128</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -21429,23 +21395,23 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74">
+      <c r="A11" s="73">
         <v>1</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <v>43145</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>211</v>
+      <c r="F11" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -21464,23 +21430,23 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="74">
+      <c r="A12" s="73">
         <v>2</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>43147</v>
       </c>
-      <c r="C12" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>211</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -21499,23 +21465,23 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+      <c r="A13" s="73">
         <v>3</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>43151</v>
       </c>
-      <c r="C13" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>211</v>
+      <c r="C13" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -21534,23 +21500,23 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="74">
+      <c r="A14" s="73">
         <v>4</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>43154</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>211</v>
+      <c r="C14" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -21569,23 +21535,23 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="74">
+      <c r="A15" s="73">
         <v>5</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <v>43158</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>211</v>
+      <c r="C15" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -21604,23 +21570,23 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
+      <c r="A16" s="73">
         <v>6</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>43166</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>211</v>
+      <c r="C16" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -21639,12 +21605,12 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -21662,12 +21628,12 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -21685,12 +21651,12 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -21708,12 +21674,12 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -21731,12 +21697,12 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -21754,12 +21720,12 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -21777,12 +21743,12 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -21800,12 +21766,12 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -21823,12 +21789,12 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="71"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -21869,15 +21835,15 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="54"/>
+      <c r="A27" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -21894,13 +21860,13 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="54"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -21917,13 +21883,13 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="54"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -21940,13 +21906,13 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="54"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -22827,7 +22793,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A27" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22836,10 +22802,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -22856,11 +22822,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
+      <c r="A1" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -22875,9 +22841,9 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -22892,9 +22858,9 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -22909,9 +22875,9 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -22926,29 +22892,29 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="55" t="s">
+      <c r="F5" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>135</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>136</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -22959,29 +22925,29 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="57">
+      <c r="B6" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="56">
         <v>43124</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <v>43131</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="57">
         <f t="shared" ref="E6:E24" si="0">D6-C6</f>
         <v>7</v>
       </c>
-      <c r="F6" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" s="60">
+      <c r="F6" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="59">
         <v>42412</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -22991,29 +22957,29 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="60">
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="57">
+      <c r="B7" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="56">
         <v>43124</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>43138</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="63">
+      <c r="F7" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="62">
         <v>42424</v>
       </c>
-      <c r="H7" s="61"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -23023,29 +22989,29 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="60">
         <v>1</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="57">
+      <c r="B8" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="56">
         <v>43124</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <v>43138</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="63">
+      <c r="F8" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="62">
         <v>42430</v>
       </c>
-      <c r="H8" s="61"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -23055,29 +23021,29 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="57">
+      <c r="B9" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="56">
         <v>43138</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="56">
         <v>43152</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="63">
+      <c r="F9" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="62">
         <v>42437</v>
       </c>
-      <c r="H9" s="61"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -23087,27 +23053,27 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="60">
         <v>2</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="57">
+      <c r="B10" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="56">
         <v>43138</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>43152</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="61"/>
+      <c r="F10" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -23117,27 +23083,27 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
+      <c r="A11" s="60">
         <v>2</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="57">
+      <c r="B11" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="56">
         <v>43138</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <v>43152</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="61"/>
+      <c r="F11" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -23147,27 +23113,27 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
+      <c r="A12" s="60">
         <v>3</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="57">
+      <c r="B12" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="56">
         <v>43152</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <v>43166</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="61"/>
+      <c r="F12" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -23177,27 +23143,27 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="61">
+      <c r="A13" s="60">
         <v>3</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="B13" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="56">
         <v>43152</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <v>43166</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F13" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="61"/>
+      <c r="F13" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -23207,27 +23173,27 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="60">
         <v>3</v>
       </c>
-      <c r="B14" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="57">
+      <c r="B14" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="56">
         <v>43152</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <v>43174</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="57">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F14" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="61"/>
+      <c r="F14" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -23237,27 +23203,27 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="61">
+      <c r="A15" s="60">
         <v>3</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="57">
+      <c r="B15" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="56">
         <v>43171</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <v>43174</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F15" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="61"/>
+      <c r="F15" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -23267,17 +23233,17 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="58">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -23287,17 +23253,17 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="58">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -23307,17 +23273,17 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="58">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -23327,17 +23293,17 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="58">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -23347,17 +23313,17 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="58">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -23367,17 +23333,17 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="58">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -23387,17 +23353,17 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="58">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -23407,17 +23373,17 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="58">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -23427,17 +23393,17 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="65"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="64"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -23481,16 +23447,16 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
+      <c r="A27" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -23500,14 +23466,14 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -23517,14 +23483,14 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -24162,13 +24128,13 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F24" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Status</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A27" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
